--- a/CAPTeam14/Doc/Template.xlsx
+++ b/CAPTeam14/Doc/Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\Desktop\Code Real\CAPTeam14\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\Desktop\code final\CAPTeam14\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D568C44-8D18-4617-AC51-043B5A788361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A137EEF0-E1D7-41A0-955D-09476613370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EE5BB69A-28AA-4FBE-914B-A68B97B85CCA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="74">
   <si>
     <t>MaGocLHP</t>
   </si>
@@ -130,6 +130,135 @@
   </si>
   <si>
     <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_01</t>
+  </si>
+  <si>
+    <t>71ITNW30103</t>
+  </si>
+  <si>
+    <t>Nhập môn Mạng máy tính và điện toán đám mây</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Lý thuyết</t>
+  </si>
+  <si>
+    <t>71K27CNTT01, 71K27CNTT02, 71K27CNTT03, 71K27CNTT04, 71K27CNTT05, 71K27CNTT06, 71K27CNTT07, 71K27CNTT08, 71K27CNTT09, 71K27CNTT10, 71K27CNTT11, 71K27CNTT12, 71K27CNTT13, 71K27CNTT14, 71K27CNTT15, 71K27CNTT16, 71K27CNTT17, 71K27CNTT18, 71K27CNTT19, 71K27CNTT20, 71K27CNTT21, 71K27CNTT22, 71K27CNTT23, 71K27CNTT24, 71K27CNTT25, 71K27CNTT26, 71K27CNTT27, 71K27CNTT28, 71K27CNTT29, 71K27CNTT30, 71K27CNTT31, 71K27CNTT32, 71K27CNTT33</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thứ Sáu</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4 - 6</t>
+  </si>
+  <si>
+    <t>CS3.F.08.01</t>
+  </si>
+  <si>
+    <t>PLT</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Được chấp nhận</t>
+  </si>
+  <si>
+    <t>17,18,19,20,24,25,26,27,28,29</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>7480201</t>
+  </si>
+  <si>
+    <t>Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0101</t>
+  </si>
+  <si>
+    <t>Thực hành</t>
+  </si>
+  <si>
+    <t>Thứ Tư</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>CS3.F.12.03</t>
+  </si>
+  <si>
+    <t>PMT</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18,19,20,24,25,26,27,28,29,30</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0102</t>
+  </si>
+  <si>
+    <t>CS3.F.12.04</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0103</t>
+  </si>
+  <si>
+    <t>CS3.F.12.05</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0104</t>
+  </si>
+  <si>
+    <t>CS3.F.12.07</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_02</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0201</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0202</t>
+  </si>
+  <si>
+    <t>212_71ITNW30103_0203</t>
   </si>
 </sst>
 </file>
@@ -160,7 +289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,13 +297,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -489,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE8A49-E5C1-4369-A252-F3BFE009EC41}">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,24 +761,879 @@
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -851,18 +1854,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3CFCFA-0F44-41BF-8A4C-9A71D71CF2DD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDC5DE82-29C6-433F-9870-23A657029EFC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDC5DE82-29C6-433F-9870-23A657029EFC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3CFCFA-0F44-41BF-8A4C-9A71D71CF2DD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
